--- a/log_session_visits.xlsx
+++ b/log_session_visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="152">
   <si>
     <t>Links</t>
   </si>
@@ -127,6 +127,27 @@
     <t>https://www.facebook.com/abbie.bell.1848</t>
   </si>
   <si>
+    <t>https://www.facebook.com/lottie.beer.50</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sally.griffiths.902819</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/declan.tolmie.5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ben.orton.796</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/duncan.rendall.35</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lewis.cannon</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Ethan.Purdy0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Archie van Aswegen </t>
   </si>
   <si>
@@ -205,6 +226,21 @@
     <t xml:space="preserve">Abbie Bell </t>
   </si>
   <si>
+    <t xml:space="preserve">Charlotte Beer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sally Griffiths </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declan Tolmie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Orton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duncan Rendall </t>
+  </si>
+  <si>
     <t>2025-04-22 09:24:25</t>
   </si>
   <si>
@@ -295,6 +331,27 @@
     <t>2025-04-28 12:22:39</t>
   </si>
   <si>
+    <t>2025-04-28 13:02:47</t>
+  </si>
+  <si>
+    <t>2025-04-30 11:04:37</t>
+  </si>
+  <si>
+    <t>2025-04-30 12:31:40</t>
+  </si>
+  <si>
+    <t>2025-04-30 12:45:06</t>
+  </si>
+  <si>
+    <t>2025-04-30 14:05:05</t>
+  </si>
+  <si>
+    <t>2025-04-30 14:18:44</t>
+  </si>
+  <si>
+    <t>2025-04-30 14:36:28</t>
+  </si>
+  <si>
     <t>already send</t>
   </si>
   <si>
@@ -383,6 +440,36 @@
   </si>
   <si>
     <t>2025-04-28 12:20:21</t>
+  </si>
+  <si>
+    <t>2025-04-28 14:40:03</t>
+  </si>
+  <si>
+    <t>2025-04-28 14:40:45</t>
+  </si>
+  <si>
+    <t>2025-04-29 15:49:25</t>
+  </si>
+  <si>
+    <t>2025-04-29 15:49:39</t>
+  </si>
+  <si>
+    <t>2025-04-30 11:06:06</t>
+  </si>
+  <si>
+    <t>2025-04-30 12:33:21</t>
+  </si>
+  <si>
+    <t>2025-04-30 12:47:06</t>
+  </si>
+  <si>
+    <t>2025-04-30 14:07:07</t>
+  </si>
+  <si>
+    <t>2025-04-30 14:20:30</t>
+  </si>
+  <si>
+    <t>2025-04-30 15:10:09</t>
   </si>
 </sst>
 </file>
@@ -757,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -802,16 +889,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -819,16 +906,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -836,16 +923,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -853,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -867,16 +954,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -884,16 +971,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -901,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -915,16 +1002,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -932,16 +1019,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -949,16 +1036,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -966,16 +1053,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -983,16 +1070,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1000,16 +1087,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1017,16 +1104,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1034,16 +1121,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1051,16 +1138,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1068,16 +1155,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1085,16 +1172,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1102,13 +1189,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1116,16 +1203,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1133,16 +1220,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1150,16 +1237,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1167,13 +1254,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1181,13 +1268,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1195,13 +1282,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1209,16 +1296,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1226,16 +1313,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1243,16 +1330,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="3">
-        <v>45775.61115665509</v>
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1260,16 +1347,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="3">
-        <v>45775.61164288194</v>
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1277,16 +1364,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="3">
-        <v>45776.65932004538</v>
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1294,16 +1381,129 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="3">
-        <v>45775.54360059028</v>
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="3">
-        <v>45776.65948162598</v>
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45777.63215131944</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45777.63979958373</v>
       </c>
     </row>
   </sheetData>
@@ -1340,6 +1540,13 @@
     <hyperlink ref="A31" r:id="rId30"/>
     <hyperlink ref="A32" r:id="rId31"/>
     <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_session_visits.xlsx
+++ b/log_session_visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="169">
   <si>
     <t>Links</t>
   </si>
@@ -148,6 +148,18 @@
     <t>https://www.facebook.com/Ethan.Purdy0</t>
   </si>
   <si>
+    <t>https://www.facebook.com/profile.php?id=100082508686383</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=61551994040307</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=61565497812211</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/neil.stoddart.777</t>
+  </si>
+  <si>
     <t xml:space="preserve">Archie van Aswegen </t>
   </si>
   <si>
@@ -241,13 +253,25 @@
     <t xml:space="preserve">Duncan Rendall </t>
   </si>
   <si>
-    <t>2025-04-22 09:24:25</t>
-  </si>
-  <si>
-    <t>2025-04-22 09:30:59</t>
-  </si>
-  <si>
-    <t>2025-04-22 09:33:47</t>
+    <t xml:space="preserve">Felix Mackay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan Masson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon Jardine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neil Stoddart </t>
+  </si>
+  <si>
+    <t>2025-05-02 15:50:07</t>
+  </si>
+  <si>
+    <t>2025-05-02 15:51:33</t>
+  </si>
+  <si>
+    <t>2025-05-02 15:46:36</t>
   </si>
   <si>
     <t>2025-04-22 09:35:04</t>
@@ -265,16 +289,16 @@
     <t>2025-04-22 15:34:56</t>
   </si>
   <si>
-    <t>2025-04-22 15:40:26</t>
-  </si>
-  <si>
-    <t>2025-04-22 15:41:04</t>
-  </si>
-  <si>
-    <t>2025-04-22 15:43:17</t>
-  </si>
-  <si>
-    <t>2025-04-22 15:45:42</t>
+    <t>2025-05-02 16:43:42</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:47:46</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:50:51</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:39:46</t>
   </si>
   <si>
     <t>2025-04-22 15:46:21</t>
@@ -292,13 +316,10 @@
     <t>2025-04-22 16:14:33</t>
   </si>
   <si>
-    <t>2025-04-23 09:34:21</t>
-  </si>
-  <si>
     <t>2025-04-23 09:41:15</t>
   </si>
   <si>
-    <t>2025-04-23 09:43:30</t>
+    <t>2025-05-02 16:28:40</t>
   </si>
   <si>
     <t>2025-04-23 09:49:52</t>
@@ -325,10 +346,10 @@
     <t>2025-04-28 10:12:36</t>
   </si>
   <si>
-    <t>2025-04-28 12:21:16</t>
-  </si>
-  <si>
-    <t>2025-04-28 12:22:39</t>
+    <t>2025-05-02 12:58:08</t>
+  </si>
+  <si>
+    <t>2025-05-02 14:50:02</t>
   </si>
   <si>
     <t>2025-04-28 13:02:47</t>
@@ -346,28 +367,46 @@
     <t>2025-04-30 14:05:05</t>
   </si>
   <si>
-    <t>2025-04-30 14:18:44</t>
+    <t>2025-05-02 16:37:03</t>
   </si>
   <si>
     <t>2025-04-30 14:36:28</t>
   </si>
   <si>
+    <t>2025-04-30 15:10:17</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:14:42</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:38:17</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:46:19</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:56:07</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
     <t>already send</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>2025-04-28 09:34:53</t>
-  </si>
-  <si>
-    <t>2025-04-22 12:41:35</t>
-  </si>
-  <si>
-    <t>2025-04-22 09:34:52</t>
-  </si>
-  <si>
-    <t>2025-04-22 09:36:22</t>
+    <t>2025-05-02 15:50:35</t>
+  </si>
+  <si>
+    <t>2025-05-02 15:53:07</t>
+  </si>
+  <si>
+    <t>2025-05-02 15:47:01</t>
+  </si>
+  <si>
+    <t>2025-05-02 15:41:09</t>
   </si>
   <si>
     <t>2025-04-22 12:53:16</t>
@@ -385,16 +424,16 @@
     <t>2025-04-23 09:28:53</t>
   </si>
   <si>
-    <t>2025-04-23 09:29:41</t>
-  </si>
-  <si>
-    <t>2025-04-23 10:29:44</t>
-  </si>
-  <si>
-    <t>2025-04-23 10:30:32</t>
-  </si>
-  <si>
-    <t>2025-04-23 15:05:37</t>
+    <t>2025-05-02 16:45:17</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:48:17</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:51:15</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:40:17</t>
   </si>
   <si>
     <t>2025-04-23 15:06:27</t>
@@ -412,13 +451,10 @@
     <t>2025-04-24 15:22:41</t>
   </si>
   <si>
-    <t>2025-04-24 15:23:26</t>
-  </si>
-  <si>
     <t>2025-04-24 16:24:19</t>
   </si>
   <si>
-    <t>2025-04-24 16:25:05</t>
+    <t>2025-05-02 16:29:02</t>
   </si>
   <si>
     <t>2025-04-25 15:51:24</t>
@@ -445,10 +481,10 @@
     <t>2025-04-28 14:40:03</t>
   </si>
   <si>
-    <t>2025-04-28 14:40:45</t>
-  </si>
-  <si>
-    <t>2025-04-29 15:49:25</t>
+    <t>2025-05-02 12:59:44</t>
+  </si>
+  <si>
+    <t>2025-05-02 14:51:42</t>
   </si>
   <si>
     <t>2025-04-29 15:49:39</t>
@@ -466,10 +502,25 @@
     <t>2025-04-30 14:07:07</t>
   </si>
   <si>
-    <t>2025-04-30 14:20:30</t>
+    <t>2025-05-02 16:37:29</t>
   </si>
   <si>
     <t>2025-04-30 15:10:09</t>
+  </si>
+  <si>
+    <t>2025-04-30 15:21:18</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:15:14</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:38:45</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:46:45</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:56:34</t>
   </si>
 </sst>
 </file>
@@ -844,7 +895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -872,16 +923,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -889,16 +940,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -906,16 +957,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -923,16 +974,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -940,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -954,16 +1005,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -971,16 +1022,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -988,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1002,16 +1053,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1019,16 +1070,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1036,16 +1087,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1053,16 +1104,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1070,16 +1121,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1087,16 +1138,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1104,16 +1155,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1121,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1138,16 +1189,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1155,16 +1206,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1172,16 +1223,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45779.70715975722</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45779.70743895076</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1189,13 +1240,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1203,16 +1254,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1220,16 +1271,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1237,16 +1288,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1254,13 +1305,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1268,13 +1319,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1282,13 +1333,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1296,16 +1347,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1313,16 +1364,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1330,16 +1381,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1347,16 +1398,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1364,16 +1415,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1381,16 +1432,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1398,16 +1449,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1415,16 +1466,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1432,16 +1483,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1449,16 +1500,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1466,16 +1517,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1483,27 +1534,95 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="3">
-        <v>45777.63215131944</v>
+      <c r="C40" t="s">
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="3">
-        <v>45777.63979958373</v>
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1547,6 +1666,10 @@
     <hyperlink ref="A38" r:id="rId37"/>
     <hyperlink ref="A39" r:id="rId38"/>
     <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_session_visits.xlsx
+++ b/log_session_visits.xlsx
@@ -1,66 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahnoor-zubair\Desktop\main - Copy\main - Copy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92FC0CF-E63D-4331-9867-BA04AA354AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Recepient</t>
-  </si>
-  <si>
-    <t>Find_Time</t>
-  </si>
-  <si>
-    <t>Delivered_Status</t>
-  </si>
-  <si>
-    <t>Delivered_Time</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,50 +49,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -190,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,33 +424,905 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Links</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Recepient</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Find_Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Delivered_Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Delivered_Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/bethany.hatten.10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bethany Hatten </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:44:09</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-05-15 14:12:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100008529009192</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Waqas Mahar  (Ahmed)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-05-14 12:20:50</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>already send</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-14 12:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/isaac.lyons.520</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isaac Lyons </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-05-14 14:20:36</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-14 14:22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/amir.mahmudoates.1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amir Mahmud-Oates </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-05-14 14:22:50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-05-14 14:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/harry.bird.161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harry Bird </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-05-14 14:28:25</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-05-14 15:40:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100000701724717</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Romina Aurora  (Romi)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-05-14 15:05:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>already send</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-05-14 15:40:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100006000555023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Hickman </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-05-14 15:43:59</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-05-14 15:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100014881381244</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sawyl Lane </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-05-14 15:46:41</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100009471483634</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Williamson </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:03:29</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-15 09:32:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/samuel.jenkins.14268</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel Jenkins </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:08:44</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-05-15 09:33:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/musa.zahir.393</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Musa Zahir </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:09:49</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-05-15 10:37:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/malek.helmi.9</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malek Helmi </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:11:09</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-15 10:37:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/matthew.king.16940</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthew King </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:13:04</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/joseph.loughrey.71</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Loughrey </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:14:26</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/osian.thomas.50</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osian Thomas </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:19:53</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-05-15 14:13:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/benschuster.null</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ben Schuster </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:20:44</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45792.63869927084</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/adam.calvert.376</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adam Calvert </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:24:13</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/lucas.pedley.7</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucas Pedley </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:24:36</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100004342278132</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacob Perry </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:26:06</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/max.heskethwest</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Hesketh-West </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:27:09</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-05-14 16:27:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/june.scott.16144</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">June Scott </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-05-15 09:37:05</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-15 09:37:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100068291694951</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louie Von Der Geest </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-05-15 09:39:29</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-15 09:39:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sabrina.pennantjones.9</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabrina Pennant-jones </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-05-15 10:47:08</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-15 10:47:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/shruthi.christina</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shruthi Christina </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-05-15 10:54:27</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-15 10:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/aimztom88</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aimée Williams </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-05-15 10:59:46</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-15 11:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/fany.felix.7</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fany Felix </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-05-15 11:04:50</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-15 11:05:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/aubreyrene.whitish</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aubrey Rene Whitish </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:30:37</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:32:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/amirul.hijjaz.2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Amirul Hijjaz  (HZ Empire)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:37:19</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:37:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100011441415936</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grace Barrett-Rees </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:41:19</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:41:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ceiramoullton</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceira Moulton </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:42:45</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:42:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/will.johnnn</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Will John </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-05-15 14:23:02</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-05-15 14:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/paul.clapham.3557</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Clapham </t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45792.63586280093</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45792.63655444444</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>